--- a/biology/Médecine/Jean-Louis_Bagot/Jean-Louis_Bagot.xlsx
+++ b/biology/Médecine/Jean-Louis_Bagot/Jean-Louis_Bagot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Louis Bagot, né le 4 juin 1727 à Saint-Brieuc et décédé le 28 février 1794 à Saint-Brieuc, a été maire de Saint-Brieuc par trois fois de 1774 à 1776, 1789 et 1790[1] et député à l'Assemblée législative en 1791.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Louis Bagot, né le 4 juin 1727 à Saint-Brieuc et décédé le 28 février 1794 à Saint-Brieuc, a été maire de Saint-Brieuc par trois fois de 1774 à 1776, 1789 et 1790 et député à l'Assemblée législative en 1791.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'était fait remarquer à Brest pour son dévouement pendant l'épidémie de peste, puis en Guinée, au cours d'un voyage, où il se montra courageux et fut blessé dans la cave d'un navire négrier où il était allé soigner des noirs révoltés.
 Chirurgien de marine, après avoir obtenu le diplôme de docteur en médecine à Reims en 1762, il s'installe à Saint-Brieuc où les médecins sont rares. Affecté à l'hôpital, il enseigne les premières notions de médecine aux filles du Saint-Esprit. Le roi le fait nommer médecin des épidémies de Bretagne, puis membre associé de l'académie royale de chirurgie de Paris et il se voit décerner une médaille d'or de médecine. Ayant renoncé à la politique, il succombe à une typhoïde.
@@ -543,7 +557,9 @@
           <t>Œuvre manuscrite</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Observations médicinales et observations météorologiques effectuées à Saint-Brieuc (de 1772 à 1790).
 Observations économiques et politiques sur le diocèse de Saint-Brieuc de 1778 à 1790).
@@ -576,9 +592,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plusieurs villes de Bretagne ont donné son nom à une rue, on peut citer notamment Nantes, Saint-Brieuc, Trégueux[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plusieurs villes de Bretagne ont donné son nom à une rue, on peut citer notamment Nantes, Saint-Brieuc, Trégueux.
 Il existe ainsi :
 une rue Bagot à Saint-Brieuc ;
 une rue Jean-Louis Bagot à Plérin par décision du conseil municipal en date du 29 mars 2004 ;
@@ -611,7 +629,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa fille, Julie Bagot, fondatrice d’un orphelinat, née à Saint-Brieuc le 27 avril 1785, décédée à Saint-Brieuc le 6 septembre 1864, reçu le Prix Montyon de la Vertu en 1832.
 </t>
